--- a/java/MyBatisPlus.xlsx
+++ b/java/MyBatisPlus.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="安装" sheetId="1" r:id="rId1"/>
+    <sheet name="注解" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MyBatisPlus官网</t>
   </si>
@@ -29,6 +29,13 @@
   <si>
     <t>SQL方法已经封装好</t>
   </si>
+  <si>
+    <t>拦截忽略注解
+注在mapper属性上</t>
+  </si>
+  <si>
+    <t>@InterceptorIgnore(illegalSql = "true", tenantLine = "true")</t>
+  </si>
 </sst>
 </file>
 
@@ -40,7 +47,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +61,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,48 +505,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,103 +559,103 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1007,7 +1010,7 @@
   <sheetPr/>
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1024,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1046,14 +1049,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="28.8" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
